--- a/banco/ESTAT.xlsx
+++ b/banco/ESTAT.xlsx
@@ -336,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -371,9 +371,6 @@
     </xf>
     <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -1954,8 +1951,8 @@
       <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="17">
-        <v>75.0</v>
+      <c r="C19" s="9">
+        <v>0.0</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>31</v>
@@ -1966,7 +1963,7 @@
       <c r="F19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <v>0.0</v>
       </c>
       <c r="H19" s="9">
@@ -2022,1260 +2019,1260 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <v>61.0</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>33.0</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="H20" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="18">
         <v>18.0</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="18">
         <v>3.0</v>
       </c>
-      <c r="K20" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L20" s="19">
+      <c r="K20" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L20" s="18">
         <v>18.0</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="18">
         <v>13.0</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="18">
         <v>27.0</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="18">
         <v>15.0</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="19">
         <v>17.0</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="19">
         <v>17.0</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R20" s="18">
         <v>6.0</v>
       </c>
-      <c r="S20" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="T20" s="19">
+      <c r="S20" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="T20" s="18">
         <v>7.0</v>
       </c>
-      <c r="U20" s="22">
-        <v>8.0</v>
-      </c>
-      <c r="V20" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="W20" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="X20" s="23" t="s">
+      <c r="U20" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="V20" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="W20" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="X20" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>65.0</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>39.0</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="19">
+      <c r="H21" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="18">
         <v>21.0</v>
       </c>
-      <c r="J21" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="K21" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L21" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="M21" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="19">
+      <c r="J21" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L21" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="18">
         <v>1.0</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="18">
         <v>2.0</v>
       </c>
-      <c r="P21" s="20">
+      <c r="P21" s="19">
         <v>16.0</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="19">
         <v>13.0</v>
       </c>
-      <c r="R21" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="S21" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="T21" s="19">
+      <c r="R21" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S21" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="T21" s="18">
         <v>7.0</v>
       </c>
-      <c r="U21" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="V21" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W21" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="X21" s="23" t="s">
+      <c r="U21" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="V21" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W21" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="X21" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <v>65.0</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>55.0</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="19">
+      <c r="G22" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="18">
         <v>2.0</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <v>17.0</v>
       </c>
-      <c r="J22" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="K22" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L22" s="19">
+      <c r="J22" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K22" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L22" s="18">
         <v>2.0</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="18">
         <v>1.0</v>
       </c>
-      <c r="N22" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="O22" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="P22" s="20">
+      <c r="N22" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O22" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="P22" s="19">
         <v>18.0</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q22" s="19">
         <v>14.0</v>
       </c>
-      <c r="R22" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="S22" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="T22" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="U22" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="V22" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="W22" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="X22" s="23" t="s">
+      <c r="R22" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="S22" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="T22" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="U22" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="V22" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="W22" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="X22" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="18">
         <v>69.0</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>63.0</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="19">
+      <c r="H23" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="18">
         <v>19.0</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="18">
         <v>4.0</v>
       </c>
-      <c r="K23" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L23" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="M23" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="O23" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="P23" s="20">
+      <c r="K23" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="O23" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="P23" s="19">
         <v>14.0</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="18">
         <v>15.0</v>
       </c>
-      <c r="R23" s="19">
+      <c r="R23" s="18">
         <v>6.0</v>
       </c>
-      <c r="S23" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="T23" s="19">
+      <c r="S23" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="T23" s="18">
         <v>7.0</v>
       </c>
-      <c r="U23" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="V23" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W23" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="X23" s="23" t="s">
+      <c r="U23" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="V23" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W23" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="X23" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <v>68.0</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>47.0</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="19">
+      <c r="G24" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="18">
         <v>1.0</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <v>22.0</v>
       </c>
-      <c r="J24" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="K24" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L24" s="19">
+      <c r="J24" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K24" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L24" s="18">
         <v>2.0</v>
       </c>
-      <c r="M24" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="N24" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="O24" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="P24" s="20">
+      <c r="M24" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N24" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O24" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="P24" s="19">
         <v>22.0</v>
       </c>
-      <c r="Q24" s="20">
+      <c r="Q24" s="19">
         <v>18.0</v>
       </c>
-      <c r="R24" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="S24" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="T24" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="U24" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="V24" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W24" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="X24" s="23" t="s">
+      <c r="R24" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="S24" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="T24" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="U24" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="V24" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W24" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="X24" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <v>41.0</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>41.0</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="19">
+      <c r="G25" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="18">
         <v>2.0</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="18">
         <v>22.0</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="18">
         <v>4.0</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="18">
         <v>4.0</v>
       </c>
-      <c r="L25" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="M25" s="19">
+      <c r="L25" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="18">
         <v>3.0</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="18">
         <v>11.0</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="18">
         <v>11.0</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25" s="19">
         <v>12.0</v>
       </c>
-      <c r="Q25" s="20">
+      <c r="Q25" s="19">
         <v>15.0</v>
       </c>
-      <c r="R25" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="S25" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="T25" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="U25" s="22">
-        <v>8.0</v>
-      </c>
-      <c r="V25" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W25" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="X25" s="23" t="s">
+      <c r="R25" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="S25" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="T25" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="U25" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="V25" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W25" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="X25" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>69.0</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <v>48.0</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="19">
+      <c r="G26" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="18">
         <v>3.0</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="18">
         <v>19.0</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="18">
         <v>4.0</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="18">
         <v>4.0</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="18">
         <v>6.0</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="18">
         <v>16.0</v>
       </c>
-      <c r="N26" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="O26" s="19">
+      <c r="N26" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="O26" s="18">
         <v>13.0</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="19">
         <v>16.0</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="18">
         <v>28.0</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R26" s="18">
         <v>6.0</v>
       </c>
-      <c r="S26" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="T26" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="U26" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="V26" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W26" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="X26" s="23" t="s">
+      <c r="S26" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="T26" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="U26" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="V26" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W26" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="X26" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>65.0</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>40.0</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <v>3.0</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="18">
         <v>2.0</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <v>16.0</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="18">
         <v>3.0</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="18">
         <v>3.0</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="18">
         <v>3.0</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="18">
         <v>1.0</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N27" s="18">
         <v>16.0</v>
       </c>
-      <c r="O27" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="P27" s="20">
+      <c r="O27" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="P27" s="19">
         <v>22.0</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="Q27" s="19">
         <v>20.0</v>
       </c>
-      <c r="R27" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="S27" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="T27" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="U27" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="V27" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="W27" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="X27" s="23" t="s">
+      <c r="R27" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="S27" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="T27" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="U27" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="V27" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="W27" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="X27" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>67.0</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>52.0</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="19">
+      <c r="G28" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="18">
         <v>2.0</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="18">
         <v>22.0</v>
       </c>
-      <c r="J28" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="K28" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L28" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="M28" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="N28" s="19">
+      <c r="J28" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K28" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L28" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M28" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="18">
         <v>13.0</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O28" s="18">
         <v>7.0</v>
       </c>
-      <c r="P28" s="20">
+      <c r="P28" s="19">
         <v>19.0</v>
       </c>
-      <c r="Q28" s="20">
+      <c r="Q28" s="19">
         <v>16.0</v>
       </c>
-      <c r="R28" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="S28" s="22">
-        <v>8.0</v>
-      </c>
-      <c r="T28" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="U28" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="V28" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W28" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="X28" s="23" t="s">
+      <c r="R28" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="S28" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="T28" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="U28" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="V28" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W28" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="X28" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>76.0</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>31.0</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="19">
+      <c r="G29" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="18">
         <v>2.0</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <v>21.0</v>
       </c>
-      <c r="J29" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="K29" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L29" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="M29" s="19">
+      <c r="J29" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K29" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L29" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="M29" s="18">
         <v>2.0</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N29" s="18">
         <v>13.0</v>
       </c>
-      <c r="O29" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="P29" s="20">
+      <c r="O29" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="P29" s="19">
         <v>15.0</v>
       </c>
-      <c r="Q29" s="20">
+      <c r="Q29" s="19">
         <v>15.0</v>
       </c>
-      <c r="R29" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="S29" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="T29" s="19">
+      <c r="R29" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="S29" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="T29" s="18">
         <v>7.0</v>
       </c>
-      <c r="U29" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="V29" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W29" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="X29" s="23" t="s">
+      <c r="U29" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="V29" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W29" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="X29" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>72.0</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>32.0</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="19">
+      <c r="G30" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="18">
         <v>1.0</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="18">
         <v>16.0</v>
       </c>
-      <c r="J30" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="K30" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L30" s="19">
+      <c r="J30" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K30" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L30" s="18">
         <v>4.0</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="18">
         <v>2.0</v>
       </c>
-      <c r="N30" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="O30" s="19">
+      <c r="N30" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="O30" s="18">
         <v>2.0</v>
       </c>
-      <c r="P30" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="Q30" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="R30" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="S30" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="T30" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="U30" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="V30" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W30" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="X30" s="23" t="s">
+      <c r="P30" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="R30" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="S30" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="T30" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="U30" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="V30" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W30" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="X30" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <v>75.0</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>51.0</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="I31" s="19">
+      <c r="H31" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="18">
         <v>22.0</v>
       </c>
-      <c r="J31" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="K31" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L31" s="19">
+      <c r="J31" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K31" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L31" s="18">
         <v>2.0</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="18">
         <v>1.0</v>
       </c>
-      <c r="N31" s="19">
+      <c r="N31" s="18">
         <v>11.0</v>
       </c>
-      <c r="O31" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="P31" s="20">
+      <c r="O31" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P31" s="19">
         <v>17.0</v>
       </c>
-      <c r="Q31" s="20">
+      <c r="Q31" s="19">
         <v>18.0</v>
       </c>
-      <c r="R31" s="19">
+      <c r="R31" s="18">
         <v>6.0</v>
       </c>
-      <c r="S31" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="T31" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="U31" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="V31" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W31" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="X31" s="23" t="s">
+      <c r="S31" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="T31" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="U31" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="V31" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W31" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="X31" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>70.0</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>32.0</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <v>2.0</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="18">
         <v>2.0</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="18">
         <v>22.0</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="18">
         <v>4.0</v>
       </c>
-      <c r="K32" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L32" s="19">
+      <c r="K32" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L32" s="18">
         <v>18.0</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="18">
         <v>16.0</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="18">
         <v>27.0</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O32" s="18">
         <v>26.0</v>
       </c>
-      <c r="P32" s="19">
+      <c r="P32" s="18">
         <v>19.0</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="Q32" s="18">
         <v>22.0</v>
       </c>
-      <c r="R32" s="19">
+      <c r="R32" s="18">
         <v>6.0</v>
       </c>
-      <c r="S32" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="T32" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="U32" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="V32" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="W32" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="X32" s="23" t="s">
+      <c r="S32" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="T32" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U32" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="V32" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="W32" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="X32" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>66.0</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>53.0</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="19">
+      <c r="G33" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="18">
         <v>2.0</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="18">
         <v>21.0</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="18">
         <v>4.0</v>
       </c>
-      <c r="K33" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L33" s="19">
+      <c r="K33" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L33" s="18">
         <v>3.0</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="18">
         <v>6.0</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N33" s="18">
         <v>19.0</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="18">
         <v>19.0</v>
       </c>
-      <c r="P33" s="19">
+      <c r="P33" s="18">
         <v>20.0</v>
       </c>
-      <c r="Q33" s="19">
+      <c r="Q33" s="18">
         <v>23.0</v>
       </c>
-      <c r="R33" s="19">
+      <c r="R33" s="18">
         <v>7.0</v>
       </c>
-      <c r="S33" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="T33" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="U33" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="V33" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W33" s="22">
-        <v>8.0</v>
-      </c>
-      <c r="X33" s="23" t="s">
+      <c r="S33" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="T33" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="U33" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="V33" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W33" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="X33" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="18">
         <v>66.0</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <v>38.0</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="21">
         <v>3.0</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="18">
         <v>1.0</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="18">
         <v>17.0</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="18">
         <v>4.0</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="18">
         <v>4.0</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="18">
         <v>6.0</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="18">
         <v>1.0</v>
       </c>
-      <c r="N34" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="O34" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="P34" s="19">
+      <c r="N34" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="O34" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P34" s="18">
         <v>15.0</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="Q34" s="18">
         <v>17.0</v>
       </c>
-      <c r="R34" s="19">
+      <c r="R34" s="18">
         <v>7.0</v>
       </c>
-      <c r="S34" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="T34" s="19">
+      <c r="S34" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="T34" s="18">
         <v>7.0</v>
       </c>
-      <c r="U34" s="22">
-        <v>8.0</v>
-      </c>
-      <c r="V34" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W34" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="X34" s="23" t="s">
+      <c r="U34" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="V34" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W34" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="X34" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="18">
         <v>75.0</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <v>39.0</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <v>3.0</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="18">
         <v>2.0</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="18">
         <v>22.0</v>
       </c>
-      <c r="J35" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="K35" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L35" s="19">
+      <c r="J35" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K35" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L35" s="18">
         <v>15.0</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="18">
         <v>4.0</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N35" s="18">
         <v>26.0</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O35" s="18">
         <v>18.0</v>
       </c>
-      <c r="P35" s="19">
+      <c r="P35" s="18">
         <v>20.0</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q35" s="18">
         <v>21.0</v>
       </c>
-      <c r="R35" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="S35" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="T35" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="U35" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="V35" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W35" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="X35" s="23" t="s">
+      <c r="R35" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="S35" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="T35" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="U35" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="V35" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W35" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="X35" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="18">
         <v>80.0</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>33.0</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="I36" s="19">
+      <c r="H36" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="18">
         <v>22.0</v>
       </c>
-      <c r="J36" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="K36" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L36" s="19">
+      <c r="J36" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K36" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L36" s="18">
         <v>7.0</v>
       </c>
-      <c r="M36" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="N36" s="19">
+      <c r="M36" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N36" s="18">
         <v>6.0</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O36" s="18">
         <v>18.0</v>
       </c>
-      <c r="P36" s="19">
+      <c r="P36" s="18">
         <v>15.0</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="Q36" s="18">
         <v>17.0</v>
       </c>
-      <c r="R36" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="S36" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="T36" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="U36" s="22">
-        <v>8.0</v>
-      </c>
-      <c r="V36" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="W36" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="X36" s="23" t="s">
+      <c r="R36" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="S36" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="T36" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="U36" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="V36" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="W36" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="X36" s="22" t="s">
         <v>54</v>
       </c>
     </row>

--- a/banco/ESTAT.xlsx
+++ b/banco/ESTAT.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brothers\Desktop\ESTAT\2023.2\Projetos\PF23047 - Ana Paula\PF23047-Ana-Paula\banco\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D04B99-C896-4B0F-A42C-2F6D69CFC0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="COMPARATIVO" sheetId="1" r:id="rId4"/>
+    <sheet name="COMPARATIVO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="l1DyDBHSTcbuVJOPeFBZhguudPBcqKy0vlfWiqV8gd4="/>
@@ -237,25 +246,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -265,7 +277,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -317,7 +329,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -331,77 +349,69 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -591,28 +601,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.63"/>
-    <col customWidth="1" min="3" max="3" width="9.25"/>
-    <col customWidth="1" min="4" max="4" width="44.75"/>
-    <col customWidth="1" min="7" max="7" width="17.0"/>
-    <col customWidth="1" min="23" max="23" width="23.38"/>
-    <col customWidth="1" min="24" max="24" width="17.75"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -694,73 +709,73 @@
         <v>25</v>
       </c>
       <c r="C2" s="9">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="9">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="9">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J2" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L2" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M2" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N2" s="12">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="O2" s="13">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="P2" s="14">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="13">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="R2" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="S2" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="T2" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U2" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V2" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W2" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -768,73 +783,73 @@
         <v>25</v>
       </c>
       <c r="C3" s="9">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="9">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="9">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J3" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K3" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L3" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N3" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O3" s="13">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="P3" s="14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="16">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="R3" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S3" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="T3" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U3" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="V3" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W3" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
@@ -842,13 +857,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="9">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="9">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>32</v>
@@ -857,58 +872,58 @@
         <v>33</v>
       </c>
       <c r="H4" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J4" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K4" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="12">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="O4" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P4" s="14">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="16">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="R4" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S4" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T4" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U4" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V4" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W4" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
@@ -916,73 +931,73 @@
         <v>35</v>
       </c>
       <c r="C5" s="9">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="9">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="9">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="J5" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K5" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L5" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O5" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P5" s="14">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="16">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="R5" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S5" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="T5" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="U5" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="V5" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W5" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -990,73 +1005,73 @@
         <v>25</v>
       </c>
       <c r="C6" s="9">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="9">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="9">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="J6" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K6" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M6" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O6" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P6" s="14">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="16">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="R6" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S6" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="T6" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U6" s="15">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V6" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W6" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -1064,73 +1079,73 @@
         <v>35</v>
       </c>
       <c r="C7" s="9">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="9">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="9">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="J7" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K7" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L7" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N7" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O7" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P7" s="14">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="16">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="R7" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S7" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="T7" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="U7" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V7" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="W7" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -1138,13 +1153,13 @@
         <v>35</v>
       </c>
       <c r="C8" s="9">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="9">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>32</v>
@@ -1153,58 +1168,58 @@
         <v>33</v>
       </c>
       <c r="H8" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="9">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="J8" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L8" s="12">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="M8" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N8" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O8" s="13">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="P8" s="14">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="16">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="R8" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S8" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T8" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U8" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V8" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W8" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
@@ -1212,13 +1227,13 @@
         <v>35</v>
       </c>
       <c r="C9" s="9">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="9">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>32</v>
@@ -1227,58 +1242,58 @@
         <v>33</v>
       </c>
       <c r="H9" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9" s="9">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="J9" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L9" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O9" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P9" s="14">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="16">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="R9" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S9" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="T9" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="U9" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="V9" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="W9" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="X9" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
@@ -1286,13 +1301,13 @@
         <v>25</v>
       </c>
       <c r="C10" s="9">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="9">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>32</v>
@@ -1301,58 +1316,58 @@
         <v>33</v>
       </c>
       <c r="H10" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J10" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K10" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L10" s="12">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="M10" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="12">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O10" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P10" s="14">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="16">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="R10" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="S10" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T10" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="U10" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="V10" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W10" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
@@ -1360,73 +1375,73 @@
         <v>35</v>
       </c>
       <c r="C11" s="9">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="9">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="9">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="J11" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L11" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M11" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="12">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="O11" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P11" s="14">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="16">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="R11" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S11" s="15">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="T11" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U11" s="15">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V11" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="W11" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X11" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>44</v>
       </c>
@@ -1434,13 +1449,13 @@
         <v>25</v>
       </c>
       <c r="C12" s="9">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="9">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>32</v>
@@ -1449,58 +1464,58 @@
         <v>33</v>
       </c>
       <c r="H12" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12" s="9">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J12" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K12" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L12" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M12" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N12" s="12">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="O12" s="13">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="P12" s="14">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="16">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="R12" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S12" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T12" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="U12" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V12" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W12" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
@@ -1508,73 +1523,73 @@
         <v>25</v>
       </c>
       <c r="C13" s="9">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="9">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="9">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J13" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K13" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L13" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M13" s="13">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="N13" s="12">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="O13" s="13">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="P13" s="14">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="16">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="R13" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="S13" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T13" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="U13" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V13" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W13" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="X13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -1582,73 +1597,73 @@
         <v>25</v>
       </c>
       <c r="C14" s="9">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="9">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="9">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J14" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K14" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L14" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M14" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O14" s="13">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="P14" s="14">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="16">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R14" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S14" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T14" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U14" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V14" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W14" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
@@ -1656,73 +1671,73 @@
         <v>25</v>
       </c>
       <c r="C15" s="9">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="9">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="9">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="J15" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K15" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L15" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M15" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N15" s="12">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="O15" s="13">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="P15" s="14">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="16">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="R15" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S15" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="T15" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U15" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="V15" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W15" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="X15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1730,13 +1745,13 @@
         <v>25</v>
       </c>
       <c r="C16" s="9">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="9">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>32</v>
@@ -1745,58 +1760,58 @@
         <v>33</v>
       </c>
       <c r="H16" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" s="9">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J16" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L16" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="12">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="O16" s="13">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="P16" s="12">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="13">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R16" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S16" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="T16" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="U16" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V16" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="W16" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -1804,73 +1819,73 @@
         <v>25</v>
       </c>
       <c r="C17" s="9">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="9">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="9">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J17" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K17" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="O17" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P17" s="12">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="13">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="R17" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S17" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T17" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="U17" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="V17" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="W17" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>51</v>
       </c>
@@ -1878,73 +1893,73 @@
         <v>25</v>
       </c>
       <c r="C18" s="9">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="9">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="9">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J18" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K18" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L18" s="12">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="M18" s="13">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="N18" s="12">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="O18" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P18" s="12">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="13">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="R18" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S18" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="T18" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U18" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V18" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="W18" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X18" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>52</v>
       </c>
@@ -1952,73 +1967,73 @@
         <v>35</v>
       </c>
       <c r="C19" s="9">
-        <v>0.0</v>
+        <v>75</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="9">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="9">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="J19" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K19" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L19" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O19" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P19" s="12">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="13">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="R19" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S19" s="15">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="T19" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U19" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V19" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W19" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X19" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
@@ -2026,13 +2041,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="18">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="18">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>32</v>
@@ -2041,58 +2056,58 @@
         <v>33</v>
       </c>
       <c r="H20" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20" s="18">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="J20" s="18">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K20" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L20" s="18">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="M20" s="18">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="N20" s="18">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="O20" s="18">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="P20" s="19">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="19">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R20" s="18">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S20" s="21">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T20" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U20" s="21">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V20" s="18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="W20" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X20" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>55</v>
       </c>
@@ -2100,13 +2115,13 @@
         <v>35</v>
       </c>
       <c r="C21" s="18">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="18">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>32</v>
@@ -2115,58 +2130,58 @@
         <v>33</v>
       </c>
       <c r="H21" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21" s="18">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="J21" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K21" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L21" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M21" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P21" s="19">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="19">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="R21" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S21" s="21">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T21" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U21" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V21" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W21" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X21" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>56</v>
       </c>
@@ -2174,73 +2189,73 @@
         <v>25</v>
       </c>
       <c r="C22" s="18">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="18">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="18">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J22" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K22" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L22" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M22" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O22" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P22" s="19">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="19">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="R22" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="S22" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="T22" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U22" s="21">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="V22" s="18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="W22" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X22" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>57</v>
       </c>
@@ -2248,13 +2263,13 @@
         <v>35</v>
       </c>
       <c r="C23" s="18">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="18">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>32</v>
@@ -2263,58 +2278,58 @@
         <v>33</v>
       </c>
       <c r="H23" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" s="18">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="J23" s="18">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K23" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L23" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M23" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="O23" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P23" s="19">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="18">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="R23" s="18">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S23" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="T23" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U23" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V23" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W23" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X23" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>58</v>
       </c>
@@ -2322,73 +2337,73 @@
         <v>25</v>
       </c>
       <c r="C24" s="18">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="18">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="18">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J24" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K24" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L24" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N24" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O24" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P24" s="19">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="19">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="R24" s="18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S24" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="T24" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U24" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V24" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W24" s="21">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="X24" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>59</v>
       </c>
@@ -2396,73 +2411,73 @@
         <v>25</v>
       </c>
       <c r="C25" s="18">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="18">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="18">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J25" s="18">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K25" s="18">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L25" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M25" s="18">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N25" s="18">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="O25" s="18">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="P25" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="19">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="R25" s="18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S25" s="21">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T25" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U25" s="21">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V25" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W25" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X25" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>60</v>
       </c>
@@ -2470,73 +2485,73 @@
         <v>35</v>
       </c>
       <c r="C26" s="18">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="18">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H26" s="18">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="18">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="J26" s="18">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K26" s="18">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L26" s="18">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M26" s="18">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="N26" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O26" s="18">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="P26" s="19">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Q26" s="18">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="R26" s="18">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S26" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="T26" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U26" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V26" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W26" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X26" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>61</v>
       </c>
@@ -2544,73 +2559,73 @@
         <v>25</v>
       </c>
       <c r="C27" s="18">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="18">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="21">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H27" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="18">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J27" s="18">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K27" s="18">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="18">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="18">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="O27" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="P27" s="19">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="19">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="R27" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="S27" s="21">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T27" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U27" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V27" s="18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="W27" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X27" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>62</v>
       </c>
@@ -2618,73 +2633,73 @@
         <v>25</v>
       </c>
       <c r="C28" s="18">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="18">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H28" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="18">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J28" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K28" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L28" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M28" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="18">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="O28" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P28" s="19">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="19">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="R28" s="18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S28" s="21">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="T28" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U28" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V28" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W28" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X28" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>63</v>
       </c>
@@ -2692,73 +2707,73 @@
         <v>25</v>
       </c>
       <c r="C29" s="18">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E29" s="18">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H29" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="18">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="J29" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K29" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L29" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M29" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N29" s="18">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="O29" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P29" s="19">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Q29" s="19">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="R29" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="S29" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="T29" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U29" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V29" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W29" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X29" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>65</v>
       </c>
@@ -2766,73 +2781,73 @@
         <v>25</v>
       </c>
       <c r="C30" s="18">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="18">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G30" s="21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H30" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="18">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J30" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K30" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L30" s="18">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M30" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N30" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O30" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P30" s="18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="Q30" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="R30" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="S30" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="T30" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U30" s="21">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="V30" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W30" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X30" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>66</v>
       </c>
@@ -2840,13 +2855,13 @@
         <v>25</v>
       </c>
       <c r="C31" s="18">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E31" s="18">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>32</v>
@@ -2855,58 +2870,58 @@
         <v>33</v>
       </c>
       <c r="H31" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I31" s="18">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J31" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K31" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L31" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="18">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="O31" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P31" s="19">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q31" s="19">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="R31" s="18">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S31" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="T31" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U31" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V31" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W31" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X31" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>67</v>
       </c>
@@ -2914,73 +2929,73 @@
         <v>25</v>
       </c>
       <c r="C32" s="18">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="18">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G32" s="21">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="18">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J32" s="18">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K32" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L32" s="18">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="M32" s="18">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="N32" s="18">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="O32" s="18">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="P32" s="18">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="18">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="R32" s="18">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S32" s="18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T32" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U32" s="18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="V32" s="18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="W32" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X32" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>68</v>
       </c>
@@ -2988,73 +3003,73 @@
         <v>25</v>
       </c>
       <c r="C33" s="18">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="18">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G33" s="21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H33" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="18">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="J33" s="18">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K33" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L33" s="18">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M33" s="18">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N33" s="18">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="O33" s="18">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="P33" s="18">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="18">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="R33" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S33" s="21">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T33" s="18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="U33" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V33" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W33" s="21">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="X33" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>69</v>
       </c>
@@ -3062,73 +3077,73 @@
         <v>25</v>
       </c>
       <c r="C34" s="18">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="18">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G34" s="21">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H34" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="18">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J34" s="18">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K34" s="18">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L34" s="18">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M34" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O34" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P34" s="18">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Q34" s="18">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R34" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S34" s="21">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T34" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U34" s="21">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V34" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W34" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X34" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>70</v>
       </c>
@@ -3136,73 +3151,73 @@
         <v>25</v>
       </c>
       <c r="C35" s="18">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="18">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G35" s="21">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H35" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I35" s="18">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J35" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K35" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L35" s="18">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="M35" s="18">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N35" s="18">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="O35" s="18">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="P35" s="18">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="18">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="R35" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="S35" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="T35" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U35" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V35" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W35" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X35" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>71</v>
       </c>
@@ -3210,13 +3225,13 @@
         <v>25</v>
       </c>
       <c r="C36" s="18">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E36" s="18">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>32</v>
@@ -3225,58 +3240,58 @@
         <v>33</v>
       </c>
       <c r="H36" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I36" s="18">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J36" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K36" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L36" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M36" s="18">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N36" s="18">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O36" s="18">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="P36" s="18">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Q36" s="18">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R36" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="S36" s="21">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T36" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U36" s="21">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V36" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W36" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X36" s="22" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>